--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2025 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE66C1B-E20D-1046-B683-7F345600C000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E497F6-FC01-FE41-A8DA-A90D2251F9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17680" yWindow="7340" windowWidth="30240" windowHeight="18880" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>SPRING BREAK - NO CLASS</t>
+  </si>
+  <si>
+    <t>/slides/01-Intro_to_Course.html</t>
   </si>
 </sst>
 </file>
@@ -608,7 +611,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -650,6 +653,9 @@
       </c>
       <c r="C2" t="s">
         <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2025 Spring/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonbryer/Dropbox (Personal)/School/Teaching/DAV5300 2025 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E497F6-FC01-FE41-A8DA-A90D2251F9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49361DD1-F3AC-3149-B498-FCA5162F34DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17680" yWindow="7340" windowWidth="30240" windowHeight="18880" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>/slides/01-Intro_to_Course.html</t>
+  </si>
+  <si>
+    <t>/slides/02-Summarizing_Data.html</t>
   </si>
 </sst>
 </file>
@@ -611,7 +614,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -674,6 +677,9 @@
       </c>
       <c r="C3" t="s">
         <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonbryer/Dropbox (Personal)/School/Teaching/DAV5300 2025 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49361DD1-F3AC-3149-B498-FCA5162F34DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6649F85-4D8D-284C-97EE-6D8D3B261A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="4900" yWindow="5100" windowWidth="25340" windowHeight="14540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>/slides/02-Summarizing_Data.html</t>
+  </si>
+  <si>
+    <t>/slides/03-Probability_and_Distributions.html</t>
   </si>
 </sst>
 </file>
@@ -699,6 +702,9 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
       <c r="E4" t="s">
         <v>42</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonbryer/Dropbox (Personal)/School/Teaching/DAV5300 2025 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6649F85-4D8D-284C-97EE-6D8D3B261A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A16A3E7-6ABD-A64E-AC8F-6999F96EA16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4900" yWindow="5100" windowWidth="25340" windowHeight="14540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>/slides/03-Probability_and_Distributions.html</t>
+  </si>
+  <si>
+    <t>/slides/05-Foundation_for_Inference.html</t>
   </si>
 </sst>
 </file>
@@ -617,7 +620,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -722,6 +725,9 @@
       </c>
       <c r="C5" t="s">
         <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonbryer/Dropbox (Personal)/School/Teaching/DAV5300 2025 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A16A3E7-6ABD-A64E-AC8F-6999F96EA16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C713B2E0-99B9-F641-BE2C-6E03E8D58F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="5100" windowWidth="25340" windowHeight="14540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="2380" yWindow="4000" windowWidth="25340" windowHeight="14540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>/slides/05-Foundation_for_Inference.html</t>
+  </si>
+  <si>
+    <t>/slides/06-Inference_for_Categorical_Data.html</t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -746,6 +749,9 @@
       </c>
       <c r="C6" t="s">
         <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
       </c>
       <c r="E6" t="s">
         <v>43</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonbryer/Dropbox (Personal)/School/Teaching/DAV5300 2025 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C713B2E0-99B9-F641-BE2C-6E03E8D58F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1D360F-B1FD-CA4C-BDE2-C586B4F30652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="4000" windowWidth="25340" windowHeight="14540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>/slides/06-Inference_for_Categorical_Data.html</t>
+  </si>
+  <si>
+    <t>/slides/07-Inference_for_Numerical_Data.html</t>
   </si>
 </sst>
 </file>
@@ -623,7 +626,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -770,6 +773,9 @@
       </c>
       <c r="C7" t="s">
         <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonbryer/Dropbox (Personal)/School/Teaching/DAV5300 2025 Spring/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2025 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1D360F-B1FD-CA4C-BDE2-C586B4F30652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE67238-D8AA-E34D-BBFE-3E9183933909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="4000" windowWidth="25340" windowHeight="14540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>/slides/07-Inference_for_Numerical_Data.html</t>
+  </si>
+  <si>
+    <t>/slides/08-Linear_Regression.html</t>
   </si>
 </sst>
 </file>
@@ -626,7 +629,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -794,6 +797,9 @@
       </c>
       <c r="C8" t="s">
         <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
       </c>
       <c r="E8" t="s">
         <v>46</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2025 Spring/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonbryer/Dropbox (Personal)/School/Teaching/DAV5300 2025 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE67238-D8AA-E34D-BBFE-3E9183933909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884F682A-05E8-1149-8A10-B30FD30C0C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="4000" windowWidth="25340" windowHeight="14540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>/slides/08-Linear_Regression.html</t>
+  </si>
+  <si>
+    <t>/slides/09-Multiple_Regression.html</t>
   </si>
 </sst>
 </file>
@@ -629,7 +632,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -818,6 +821,9 @@
       </c>
       <c r="C9" t="s">
         <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
       </c>
       <c r="E9" t="s">
         <v>49</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonbryer/Dropbox (Personal)/School/Teaching/DAV5300 2025 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884F682A-05E8-1149-8A10-B30FD30C0C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D949C465-71C6-DC45-B5B7-2D96209A502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="4000" windowWidth="25340" windowHeight="14540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>/slides/09-Multiple_Regression.html</t>
+  </si>
+  <si>
+    <t>/slides/09-Logistic_Regression.html</t>
   </si>
 </sst>
 </file>
@@ -843,6 +846,9 @@
       <c r="C10" t="s">
         <v>27</v>
       </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
       <c r="E10" t="s">
         <v>50</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonbryer/Dropbox (Personal)/School/Teaching/DAV5300 2025 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D949C465-71C6-DC45-B5B7-2D96209A502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9855494A-4B4D-DB44-B3A5-ECF50AFD7473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="4000" windowWidth="25340" windowHeight="14540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>/slides/09-Logistic_Regression.html</t>
+  </si>
+  <si>
+    <t>/slides/09-Predictive_Modeling.html</t>
   </si>
 </sst>
 </file>
@@ -635,7 +638,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -863,6 +866,9 @@
       </c>
       <c r="B11" t="s">
         <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
       </c>
       <c r="E11" s="4"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonbryer/Dropbox (Personal)/School/Teaching/DAV5300 2025 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9855494A-4B4D-DB44-B3A5-ECF50AFD7473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B964B45-5757-1F42-8DE4-B5BA18BF4A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="4000" windowWidth="25340" windowHeight="14540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -638,7 +638,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -888,7 +888,10 @@
         <v>45755</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -898,10 +901,7 @@
         <v>45762</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E14" s="5"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonbryer/Dropbox (Personal)/School/Teaching/DAV5300 2025 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B964B45-5757-1F42-8DE4-B5BA18BF4A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EBB187-A184-2A4F-9BD4-1074E0BAF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="4000" windowWidth="25340" windowHeight="14540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>/slides/09-Predictive_Modeling.html</t>
+  </si>
+  <si>
+    <t>/slides/10-Bayesian_and_PSA.html</t>
   </si>
 </sst>
 </file>
@@ -638,7 +641,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -892,6 +895,9 @@
       </c>
       <c r="C13" t="s">
         <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
       </c>
       <c r="E13" s="2"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonbryer/Dropbox (Personal)/School/Teaching/DAV5300 2025 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EBB187-A184-2A4F-9BD4-1074E0BAF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83755AFE-ED34-E748-8675-AF6E7E50F491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="4000" windowWidth="25340" windowHeight="14540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>/slides/10-Bayesian_and_PSA.html</t>
+  </si>
+  <si>
+    <t>Bayesian Analysis and Propensity Score Analysis</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -891,7 +894,7 @@
         <v>45755</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
